--- a/Text1.xlsx
+++ b/Text1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstam-my.sharepoint.com/personal/nayanr_firstam_com/Documents/Desktop/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skousars\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8FED0B-7BF2-4ADA-B7B1-8938CA08791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E5C60-C2DA-410D-8A88-75F3E65B0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6AB68CB8-C6AD-4DF3-AAAA-E3992073D9AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>QId</t>
   </si>
@@ -144,14 +144,206 @@
     <t>It is an environment for developing, building, deploying and executing Web Services</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>A variable which is declared inside a method is called a _________ variable?</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Loacal</t>
+  </si>
+  <si>
+    <t>Which of the following programming language can be used with ASP.NET?</t>
+  </si>
+  <si>
+    <t>VB.NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C#.NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> None</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Which of the following technologies are also used with ASP.NET?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSS</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>AJAX</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>In which form does Postback occur?</t>
+  </si>
+  <si>
+    <t>Win Forms</t>
+  </si>
+  <si>
+    <t>Web Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Forms</t>
+  </si>
+  <si>
+    <t>HTML Forms</t>
+  </si>
+  <si>
+    <t>Feature of a local variable?</t>
+  </si>
+  <si>
+    <t>It can be used anywhere in the program</t>
+  </si>
+  <si>
+    <t>It must accept a class</t>
+  </si>
+  <si>
+    <t>t must be declared within a method</t>
+  </si>
+  <si>
+    <t>It represent a class object</t>
+  </si>
+  <si>
+    <t>Two methods with the same name but with different parameters?</t>
+  </si>
+  <si>
+    <t>Overloading</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Multiplexing</t>
+  </si>
+  <si>
+    <t>Duplexing</t>
+  </si>
+  <si>
+    <t>Is there any errors in this -&gt; EmployeeMgmt constructor: Public int EmployeeMgmt { emp_id = 100; }?</t>
+  </si>
+  <si>
+    <t>Return type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Formal parameters</t>
+  </si>
+  <si>
+    <t>No errors</t>
+  </si>
+  <si>
+    <t>If a class is using an interface, it must?</t>
+  </si>
+  <si>
+    <t>inherit the properties of the interface</t>
+  </si>
+  <si>
+    <t>contain the same methods as the interface</t>
+  </si>
+  <si>
+    <t>create an interface object</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t>What is the output of the code public class B : A { }?</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>both b and c</t>
+  </si>
+  <si>
+    <t>t defines a class that inherits the public methods of A onl</t>
+  </si>
+  <si>
+    <t>It defines a class that inherits all the methods of A but the private members cannot be accessed</t>
+  </si>
+  <si>
+    <t>Sealed Classes cannot be a base class?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>What are the features of an abstract class?</t>
+  </si>
+  <si>
+    <t>It contain instance variables</t>
+  </si>
+  <si>
+    <t>t contain constructors</t>
+  </si>
+  <si>
+    <t>It may extend another class</t>
+  </si>
+  <si>
+    <t>eatures of Read only variables?</t>
+  </si>
+  <si>
+    <t>It is allocated at compile time</t>
+  </si>
+  <si>
+    <t>Declaration and initialization is separated</t>
+  </si>
+  <si>
+    <t>t is allocated at runtime</t>
+  </si>
+  <si>
+    <t>All of these</t>
+  </si>
+  <si>
+    <t>An Event has _____ as default return type?</t>
+  </si>
+  <si>
+    <t>No return type for events</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Easy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +354,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,17 +397,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,6 +428,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3065C44B-4890-CC40-D447-58F532D34378}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,190 +785,1832 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F6AACD-4BB4-4D7F-9AF4-5B14C55C1ACB}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F6AACD-4BB4-4D7F-9AF4-5B14C55C1ACB}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="40.7265625" customWidth="1"/>
+    <col min="6" max="6" width="60.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="C2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="b">
+      <c r="G2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="https://freecomputernotes.com/dot net questions/dot net mcqs.html" xr:uid="{4499C82C-FD07-437E-92F9-6921487D845C}"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://freecomputernotes.com/dot net questions/dot net multiple choice questions.html" xr:uid="{F2735506-F763-4A55-945A-3CD6B771A992}"/>
+    <hyperlink ref="B13" r:id="rId3" display="https://freecomputernotes.com/dot net questions/dot net objective questions.html" xr:uid="{41E43FF1-B547-496F-BEAC-D7432353AD08}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://freecomputernotes.com/dot net questions/dotnet multiple choice questions.html" xr:uid="{B9952397-F1B2-409D-AA41-E98D359A9102}"/>
+    <hyperlink ref="B15" r:id="rId5" display="https://freecomputernotes.com/dot net questions/dot net interview questions.html" xr:uid="{31EC6983-EF9C-4A0C-AC0D-149F252AE86D}"/>
+    <hyperlink ref="B16" r:id="rId6" display="https://freecomputernotes.com/dot net questions/dot net mcq.html" xr:uid="{6BFA5177-CFBB-4275-9330-0E429974885E}"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://freecomputernotes.com/dot net questions/dot net framework online practice test.html" xr:uid="{E137BACC-BEC4-4C27-8FA4-9D0E62F4F57C}"/>
+    <hyperlink ref="B18" r:id="rId8" display="https://freecomputernotes.com/dot net questions/dot net multiple choice interview questions.html" xr:uid="{7C8E7E69-B0B2-4F21-A8F0-30C23ACE1ED2}"/>
+    <hyperlink ref="B19" r:id="rId9" display="https://freecomputernotes.com/dot net questions/asp .net interview questions.html" xr:uid="{0718770E-E2BB-4D6A-8931-DE55B68FEFCA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId13" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId13" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>